--- a/MyEmployeeHashTable.xlsx
+++ b/MyEmployeeHashTable.xlsx
@@ -1,78 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Employee #</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>8d969eef6ecad3c29a3a629280e686cf0c3f5d5a86aff3ca12020c923adc6c92:123ece1ce4004d5f9094df2cd271358c</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Rhonda</t>
-  </si>
-  <si>
-    <t>12Apr1982</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,21 +67,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -397,48 +378,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Employee #</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>8d969eef6ecad3c29a3a629280e686cf0c3f5d5a86aff3ca12020c923adc6c92:123ece1ce4004d5f9094df2cd271358c</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rhonda</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>123456</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12Apr1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>8d969eef6ecad3c29a3a629280e686cf0c3f5d5a86aff3ca12020c923adc6c92:d6525612b4304b8e94ba7dc13f21bf4e</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dodson</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Candace</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6Mar2019</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/MyEmployeeHashTable.xlsx
+++ b/MyEmployeeHashTable.xlsx
@@ -1,50 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hachidori\PycharmProjects\FinalProjectAlgorithms_DataStructures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0780A75-7A7F-4B10-AFCB-02239F4030EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView xWindow="-13905" yWindow="120" windowWidth="12600" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Employee #</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>8d969eef6ecad3c29a3a629280e686cf0c3f5d5a86aff3ca12020c923adc6c92:8c0f63b832874067b388f5e6a8035484</t>
+  </si>
+  <si>
+    <t>Benavides</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>12May1988</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,30 +101,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -137,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,9 +202,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,6 +254,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -378,99 +447,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Employee #</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DOB</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>8d969eef6ecad3c29a3a629280e686cf0c3f5d5a86aff3ca12020c923adc6c92:123ece1ce4004d5f9094df2cd271358c</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Rhonda</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
         <v>123456</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12Apr1982</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>8d969eef6ecad3c29a3a629280e686cf0c3f5d5a86aff3ca12020c923adc6c92:d6525612b4304b8e94ba7dc13f21bf4e</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Dodson</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Candace</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6Mar2019</t>
-        </is>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MyEmployeeHashTable.xlsx
+++ b/MyEmployeeHashTable.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hachidori\PycharmProjects\FinalProjectAlgorithms_DataStructures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0780A75-7A7F-4B10-AFCB-02239F4030EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13905" yWindow="120" windowWidth="12600" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Last Name</t>
   </si>
@@ -37,23 +31,29 @@
     <t>Key</t>
   </si>
   <si>
-    <t>8d969eef6ecad3c29a3a629280e686cf0c3f5d5a86aff3ca12020c923adc6c92:8c0f63b832874067b388f5e6a8035484</t>
-  </si>
-  <si>
-    <t>Benavides</t>
-  </si>
-  <si>
-    <t>Miranda</t>
-  </si>
-  <si>
-    <t>12May1988</t>
+    <t>8cbfcebdeca5bb89e5ececd26766b06564498d21a43b2aedd616ad2419af91fc:3e90a530a2334ac8a420daae064aa69f</t>
+  </si>
+  <si>
+    <t>4aff1692c394f1d7665268e1c84c82aed82df5089cbfc041e23bcacca466118d:fc0b71e10abe4dfeab8a9f178247ba71</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>07Mar1992</t>
+  </si>
+  <si>
+    <t>09Jun1978</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,14 +116,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -170,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,27 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,24 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,17 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,21 +427,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>323456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>123456</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
+      </c>
+      <c r="D3">
+        <v>423456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
